--- a/biology/Zoologie/Deimatidae/Deimatidae.xlsx
+++ b/biology/Zoologie/Deimatidae/Deimatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Deimatidae sont une famille d'holothuries (concombres de mer) abyssales de l'ordre des Synallactida[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Deimatidae sont une famille d'holothuries (concombres de mer) abyssales de l'ordre des Synallactida.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet holothuries sont cylindriques, hérissées de longues papilles non rétractiles et pourvues de 15 à 20 tentacules buccaux. Elles sont pourvues de longues papilles latérales et dorsales, et dépourvues d'arbres respiratoires (« poumons »). Les gonades sont jumelles, de part et d'autre du mésentère dorsal[3]. Leur tégument est fragile, et se parchemine quand on le sèche. Les ossicules dermiques sont en forme de spatule[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holothuries sont cylindriques, hérissées de longues papilles non rétractiles et pourvues de 15 à 20 tentacules buccaux. Elles sont pourvues de longues papilles latérales et dorsales, et dépourvues d'arbres respiratoires (« poumons »). Les gonades sont jumelles, de part et d'autre du mésentère dorsal. Leur tégument est fragile, et se parchemine quand on le sèche. Les ossicules dermiques sont en forme de spatule.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 juin 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 juin 2014) :
 genre Deima Théel, 1879
 Deima pacificum Ludwig, 1894
 Deima validum Théel, 1879
